--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -425,7 +425,7 @@
         <v>Find the maximum and minimum element in an array</v>
       </c>
       <c r="C7" t="str">
-        <v>&lt;-&gt;</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="8">
